--- a/wzrv/expdata/1001.xlsx
+++ b/wzrv/expdata/1001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>cms</t>
   </si>
@@ -450,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -475,43 +475,46 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -528,46 +531,49 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="F2" s="1">
+        <v>-1.27</v>
+      </c>
+      <c r="G2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>50</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.24099999999999999</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.14599999999999999</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>0.01</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O2" s="1">
-        <f>0.033*I2</f>
+      <c r="P2" s="1">
+        <f>0.033*J2</f>
         <v>7.953E-3</v>
       </c>
-      <c r="P2">
-        <f>SQRT(K2*K2-N2*N2-O2*O2)</f>
+      <c r="Q2">
+        <f>SQRT(L2*L2-O2*O2-P2*P2)</f>
         <v>3.4277968142817348E-3</v>
       </c>
-      <c r="Q2">
-        <f>SQRT(N2*N2+O2*O2)</f>
+      <c r="R2">
+        <f>SQRT(O2*O2+P2*P2)</f>
         <v>9.394158237968955E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -584,46 +590,49 @@
         <v>-0.5</v>
       </c>
       <c r="F3" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="G3" s="1">
         <v>25</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>50</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.26</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0.01</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O3" s="1">
-        <f t="shared" ref="O3:O7" si="0">0.033*I3</f>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P7" si="0">0.033*J3</f>
         <v>8.5800000000000008E-3</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P7" si="1">SQRT(K3*K3-N3*N3-O3*O3)</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q7" si="1">SQRT(L3*L3-O3*O3-P3*P3)</f>
         <v>1.1762652762026082E-3</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="2">SQRT(N3*N3+O3*O3)</f>
+      <c r="R3">
+        <f t="shared" ref="R3:R7" si="2">SQRT(O3*O3+P3*P3)</f>
         <v>9.9305790364912772E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -640,46 +649,49 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
+        <v>-0.27</v>
+      </c>
+      <c r="G4" s="1">
         <v>25</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>50</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.28100000000000003</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>9.2730000000000017E-3</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f t="shared" si="1"/>
         <v>3.1640908646876683E-3</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f t="shared" si="2"/>
         <v>1.0535109349218927E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -696,46 +708,49 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G5" s="1">
         <v>25</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>50</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.23899999999999999</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>0.01</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <f t="shared" si="0"/>
         <v>7.8869999999999999E-3</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f t="shared" si="1"/>
         <v>3.5770422138968411E-3</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f t="shared" si="2"/>
         <v>9.3383493723462711E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -752,46 +767,49 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F6" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>50</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.38500000000000001</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <f t="shared" si="0"/>
         <v>1.2705000000000001E-2</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f t="shared" si="1"/>
         <v>3.0956380602389527E-3</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="2"/>
         <v>1.3653462015181353E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -808,41 +826,44 @@
         <v>2</v>
       </c>
       <c r="F7" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>50</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.20499999999999999</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <f t="shared" si="0"/>
         <v>6.7650000000000002E-3</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="1"/>
         <v>3.1991834895798007E-3</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="2"/>
         <v>8.4122069042552681E-3</v>
       </c>

--- a/wzrv/expdata/1001.xlsx
+++ b/wzrv/expdata/1001.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504ADFCF-106C-F146-BD5B-402E5C74F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>cms</t>
   </si>
@@ -42,9 +46,6 @@
   </si>
   <si>
     <t>pt_min</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
   <si>
     <t>boson</t>
@@ -101,9 +102,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,9 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -449,77 +461,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>510</v>
@@ -536,49 +545,46 @@
       <c r="G2" s="1">
         <v>25</v>
       </c>
-      <c r="H2" s="1">
-        <v>50</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.24099999999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.24099999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="K2" s="1">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="L2" s="1">
         <v>0.01</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
+      <c r="N2" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O2" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P2" s="1">
-        <f>0.033*J2</f>
+        <f>0.033*I2</f>
         <v>7.953E-3</v>
       </c>
+      <c r="P2">
+        <f>SQRT(K2*K2-N2*N2-O2*O2)</f>
+        <v>3.4277968142817348E-3</v>
+      </c>
       <c r="Q2">
-        <f>SQRT(L2*L2-O2*O2-P2*P2)</f>
-        <v>3.4277968142817348E-3</v>
-      </c>
-      <c r="R2">
-        <f>SQRT(O2*O2+P2*P2)</f>
+        <f>SQRT(N2*N2+O2*O2)</f>
         <v>9.394158237968955E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>510</v>
@@ -595,49 +601,46 @@
       <c r="G3" s="1">
         <v>25</v>
       </c>
-      <c r="H3" s="1">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.26</v>
       </c>
       <c r="J3" s="1">
-        <v>0.26</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="K3" s="1">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="L3" s="1">
         <v>0.01</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
+      <c r="N3" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O3" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P3" s="1">
-        <f t="shared" ref="P3:P7" si="0">0.033*J3</f>
+        <f t="shared" ref="O3:O7" si="0">0.033*I3</f>
         <v>8.5800000000000008E-3</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P7" si="1">SQRT(K3*K3-N3*N3-O3*O3)</f>
+        <v>1.1762652762026082E-3</v>
+      </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="1">SQRT(L3*L3-O3*O3-P3*P3)</f>
-        <v>1.1762652762026082E-3</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R7" si="2">SQRT(O3*O3+P3*P3)</f>
+        <f t="shared" ref="Q3:Q7" si="2">SQRT(N3*N3+O3*O3)</f>
         <v>9.9305790364912772E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>510</v>
@@ -654,49 +657,46 @@
       <c r="G4" s="1">
         <v>25</v>
       </c>
-      <c r="H4" s="1">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.28100000000000003</v>
       </c>
       <c r="J4" s="1">
-        <v>0.28100000000000003</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="K4" s="1">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="L4" s="1">
         <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>15</v>
+      <c r="N4" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O4" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>9.2730000000000017E-3</v>
       </c>
-      <c r="Q4">
+      <c r="P4">
         <f t="shared" si="1"/>
         <v>3.1640908646876683E-3</v>
       </c>
-      <c r="R4">
+      <c r="Q4">
         <f t="shared" si="2"/>
         <v>1.0535109349218927E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>510</v>
@@ -713,49 +713,46 @@
       <c r="G5" s="1">
         <v>25</v>
       </c>
-      <c r="H5" s="1">
-        <v>50</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.23899999999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.23899999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="K5" s="1">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="L5" s="1">
         <v>0.01</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>15</v>
+      <c r="N5" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O5" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P5" s="1">
         <f t="shared" si="0"/>
         <v>7.8869999999999999E-3</v>
       </c>
-      <c r="Q5">
+      <c r="P5">
         <f t="shared" si="1"/>
         <v>3.5770422138968411E-3</v>
       </c>
-      <c r="R5">
+      <c r="Q5">
         <f t="shared" si="2"/>
         <v>9.3383493723462711E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>510</v>
@@ -772,49 +769,46 @@
       <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="H6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.38500000000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.38500000000000001</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="K6" s="1">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="L6" s="1">
         <v>1.4E-2</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>15</v>
+      <c r="N6" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O6" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P6" s="1">
         <f t="shared" si="0"/>
         <v>1.2705000000000001E-2</v>
       </c>
-      <c r="Q6">
+      <c r="P6">
         <f t="shared" si="1"/>
         <v>3.0956380602389527E-3</v>
       </c>
-      <c r="R6">
+      <c r="Q6">
         <f t="shared" si="2"/>
         <v>1.3653462015181353E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>510</v>
@@ -831,39 +825,36 @@
       <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="H7" s="1">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.20499999999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.20499999999999999</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="K7" s="1">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="L7" s="1">
         <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>15</v>
+      <c r="N7" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O7" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P7" s="1">
         <f t="shared" si="0"/>
         <v>6.7650000000000002E-3</v>
       </c>
-      <c r="Q7">
+      <c r="P7">
         <f t="shared" si="1"/>
         <v>3.1991834895798007E-3</v>
       </c>
-      <c r="R7">
+      <c r="Q7">
         <f t="shared" si="2"/>
         <v>8.4122069042552681E-3</v>
       </c>
